--- a/src/Presentation/CTM.Win/DataTemplate/Delivery/BOCI_N.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Delivery/BOCI_N.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepo\CTM\CTM.Win\DataImportTemplate\Delivery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\src\Presentation\CTM.Win\DataTemplate\Delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -954,13 +954,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="22" max="22" width="39.625" customWidth="1"/>
+    <col min="22" max="22" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
